--- a/Assignment 2/App test scenarioes.xlsx
+++ b/Assignment 2/App test scenarioes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="557" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="557" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fb messanger" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="606">
   <si>
     <t>SR NO</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Verify if deleted massage not show in received user.</t>
   </si>
   <si>
-    <t>Verify if at which time the massage have  been send and seen .</t>
-  </si>
-  <si>
     <t>Whatsapp group</t>
   </si>
   <si>
@@ -1813,6 +1810,36 @@
   </si>
   <si>
     <t>Verify if user not record video on  different quality and different FPS.</t>
+  </si>
+  <si>
+    <t>Verify if there has  no limit of member  adding function.</t>
+  </si>
+  <si>
+    <t>Verify if when we are typing then all of the group member was seen that a person with name was typing.</t>
+  </si>
+  <si>
+    <t>Verify if member can edit the group name without admin permission or without any authority.</t>
+  </si>
+  <si>
+    <t>Verify if other member of group is not able to kick other member.</t>
+  </si>
+  <si>
+    <t>Verify if any member can delete member without admin permission or without any authority.</t>
+  </si>
+  <si>
+    <t>Verify if old member can add new member without admin permission or without any authority.</t>
+  </si>
+  <si>
+    <t>Verify if massage not deliverd properly due to bad connection.</t>
+  </si>
+  <si>
+    <t>Verify if auto correction is working or not.</t>
+  </si>
+  <si>
+    <t>Verify if reaction option not having gif or sticker option.</t>
+  </si>
+  <si>
+    <t>Verify if we cant be able to see at which time the massage have  been sent and seen .</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2064,11 +2091,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2117,6 +2157,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2150,32 +2208,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2497,11 +2540,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="46.5">
       <c r="A3" s="3">
@@ -2759,11 +2802,11 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="23.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="52.5">
       <c r="A30" s="2">
@@ -3812,11 +3855,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="46.5">
       <c r="A3" s="3">
@@ -4068,11 +4111,11 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="23.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" ht="46.5">
       <c r="A29" s="3">
@@ -4322,11 +4365,11 @@
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="23.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
     </row>
     <row r="55" spans="1:3" ht="46.5">
       <c r="A55" s="3">
@@ -4579,11 +4622,11 @@
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" ht="23.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
     </row>
     <row r="82" spans="1:3" ht="46.5">
       <c r="A82" s="3">
@@ -4730,11 +4773,11 @@
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" ht="23.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="24"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" ht="46.5">
       <c r="A97" s="3">
@@ -4886,11 +4929,11 @@
       <c r="C113" s="14"/>
     </row>
     <row r="114" spans="1:3" ht="23.25">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="26"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="32"/>
     </row>
     <row r="115" spans="1:3" ht="46.5">
       <c r="A115" s="3">
@@ -5050,11 +5093,11 @@
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" ht="23.25">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="24"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="46.5">
       <c r="A131" s="3">
@@ -6999,8 +7042,8 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B4"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7022,11 +7065,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="46.5">
       <c r="A3" s="3">
@@ -7035,7 +7078,9 @@
       <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="15" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="69.75">
       <c r="A4" s="3">
@@ -7044,7 +7089,9 @@
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="15" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="46.5">
       <c r="A5" s="3">
@@ -7053,25 +7100,31 @@
       <c r="B5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="46.5">
+      <c r="C5" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="69.75">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="46.5">
+      <c r="C6" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="69.75">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="15" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="46.5">
       <c r="A8" s="3">
@@ -7080,7 +7133,9 @@
       <c r="B8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="15" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="46.5">
       <c r="A9" s="3">
@@ -7089,7 +7144,9 @@
       <c r="B9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="15" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="69.75">
       <c r="A10" s="3">
@@ -7098,16 +7155,20 @@
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="46.5">
+      <c r="C10" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="69.75">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="46.5">
       <c r="A12" s="3">
@@ -7116,7 +7177,9 @@
       <c r="B12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="15" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="46.5">
       <c r="A13" s="3">
@@ -7125,7 +7188,9 @@
       <c r="B13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="15" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="46.5">
       <c r="A14" s="3">
@@ -7134,7 +7199,9 @@
       <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="15" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="46.5">
       <c r="A15" s="3">
@@ -7241,11 +7308,11 @@
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="23.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
     </row>
     <row r="28" spans="1:3" ht="46.5">
       <c r="A28" s="3">
@@ -7254,7 +7321,9 @@
       <c r="B28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="15" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="69.75">
       <c r="A29" s="3">
@@ -7263,16 +7332,20 @@
       <c r="B29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="23.25">
+      <c r="C29" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="46.5">
       <c r="A30" s="3">
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="15" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="46.5">
       <c r="A31" s="3">
@@ -7281,7 +7354,9 @@
       <c r="B31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="15" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="46.5">
       <c r="A32" s="3">
@@ -7290,7 +7365,9 @@
       <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="15" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="46.5">
       <c r="A33" s="3">
@@ -7299,7 +7376,9 @@
       <c r="B33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="15" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="46.5">
       <c r="A34" s="3">
@@ -7308,7 +7387,9 @@
       <c r="B34" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="15" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="69.75">
       <c r="A35" s="3">
@@ -7317,7 +7398,9 @@
       <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="15" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="46.5">
       <c r="A36" s="3">
@@ -7326,7 +7409,9 @@
       <c r="B36" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="15" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="46.5">
       <c r="A37" s="3">
@@ -7335,43 +7420,53 @@
       <c r="B37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="46.5">
+      <c r="C37" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="93">
       <c r="A38" s="3">
         <v>11</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="46.5">
+      <c r="C38" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="69.75">
       <c r="A39" s="3">
         <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="46.5">
+      <c r="C39" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="69.75">
       <c r="A40" s="3">
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="46.5">
+      <c r="C40" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="69.75">
       <c r="A41" s="3">
         <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="46.5">
       <c r="A42" s="3">
@@ -7419,82 +7514,82 @@
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="46.5">
-      <c r="A47" s="3">
+      <c r="A47" s="37">
         <v>20</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3" ht="46.5">
       <c r="A48" s="3">
         <v>21</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="23.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
     </row>
     <row r="50" spans="1:3" ht="23.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="1:3" ht="23.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="1:3" ht="23.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
     </row>
     <row r="53" spans="1:3" ht="23.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
     </row>
     <row r="54" spans="1:3" ht="23.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
     </row>
     <row r="55" spans="1:3" ht="23.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
     </row>
     <row r="56" spans="1:3" ht="23.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
     </row>
     <row r="57" spans="1:3" ht="23.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
     </row>
     <row r="58" spans="1:3" ht="23.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
     </row>
     <row r="59" spans="1:3" ht="23.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="23.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7509,7 +7604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
@@ -7533,11 +7628,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="46.5">
       <c r="A3" s="3">
@@ -7546,8 +7641,8 @@
       <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>541</v>
+      <c r="C3" s="23" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46.5">
@@ -7557,8 +7652,8 @@
       <c r="B4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>588</v>
+      <c r="C4" s="23" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="46.5">
@@ -7566,10 +7661,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>589</v>
+        <v>482</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="46.5">
@@ -7577,10 +7672,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>585</v>
+        <v>483</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="46.5">
@@ -7588,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>590</v>
+        <v>484</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5">
@@ -7599,10 +7694,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>586</v>
+        <v>485</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="46.5">
@@ -7610,10 +7705,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>587</v>
+        <v>486</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7621,10 +7716,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>591</v>
+        <v>487</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7632,10 +7727,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>592</v>
+        <v>488</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7643,10 +7738,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>593</v>
+        <v>489</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.5">
@@ -7654,10 +7749,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>584</v>
+        <v>490</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="46.5">
@@ -7665,10 +7760,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="46.5">
@@ -7676,10 +7771,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5">
@@ -7687,10 +7782,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="46.5">
@@ -7698,10 +7793,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7709,7 +7804,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -7718,7 +7813,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -7727,7 +7822,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -7737,11 +7832,11 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" ht="46.5">
       <c r="A23" s="3">
@@ -7751,7 +7846,7 @@
         <v>306</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="46.5">
@@ -7762,7 +7857,7 @@
         <v>307</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="46.5">
@@ -7770,10 +7865,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="46.5">
@@ -7781,10 +7876,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="46.5">
@@ -7792,10 +7887,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="46.5">
@@ -7803,10 +7898,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="46.5">
@@ -7814,10 +7909,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="46.5">
@@ -7825,10 +7920,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="46.5">
@@ -7836,10 +7931,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="46.5">
@@ -7847,10 +7942,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="46.5">
@@ -7858,10 +7953,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="46.5">
@@ -7869,10 +7964,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="46.5">
@@ -7880,10 +7975,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7891,7 +7986,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -7900,7 +7995,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -7910,8 +8005,8 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="22" t="s">
-        <v>480</v>
+      <c r="A39" s="28" t="s">
+        <v>479</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
@@ -7924,7 +8019,7 @@
         <v>306</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="46.5">
@@ -7935,7 +8030,7 @@
         <v>307</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.5">
@@ -7943,10 +8038,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="46.5">
@@ -7954,10 +8049,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="46.5">
@@ -7965,10 +8060,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="46.5">
@@ -7976,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="46.5">
@@ -7987,10 +8082,10 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46.5">
@@ -7998,10 +8093,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8010,7 +8105,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8019,7 +8114,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8028,11 +8123,11 @@
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" ht="46.5">
       <c r="A52" s="3">
@@ -8042,7 +8137,7 @@
         <v>306</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="46.5">
@@ -8053,7 +8148,7 @@
         <v>307</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8061,10 +8156,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="46.5">
@@ -8072,10 +8167,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="46.5">
@@ -8083,10 +8178,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="46.5">
@@ -8094,10 +8189,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="46.5">
@@ -8105,10 +8200,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="46.5">
@@ -8116,10 +8211,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="46.5">
@@ -8127,10 +8222,10 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="46.5">
@@ -8138,10 +8233,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8149,7 +8244,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -8158,7 +8253,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -8168,11 +8263,11 @@
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66" spans="1:3" ht="46.5">
       <c r="A66" s="3">
@@ -8182,7 +8277,7 @@
         <v>306</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="46.5">
@@ -8193,7 +8288,7 @@
         <v>307</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="46.5">
@@ -8201,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="46.5">
@@ -8212,10 +8307,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="46.5">
@@ -8223,10 +8318,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8234,10 +8329,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="46.5">
@@ -8245,10 +8340,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="46.5">
@@ -8256,10 +8351,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="46.5">
@@ -8267,10 +8362,10 @@
         <v>9</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="46.5">
@@ -8278,10 +8373,10 @@
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8289,7 +8384,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -8298,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -8307,7 +8402,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -9164,9 +9259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9176,23 +9271,23 @@
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="23.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="23.25">
       <c r="A3" s="3">
@@ -9220,7 +9315,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="18" t="s">
         <v>368</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -9231,7 +9326,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="18" t="s">
         <v>369</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -9242,40 +9337,40 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>370</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.5">
+    <row r="8" spans="1:3" ht="46.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>450</v>
+      <c r="B8" s="18" t="s">
+        <v>449</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25">
+    <row r="9" spans="1:3" ht="23.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52.5">
+    <row r="10" spans="1:3" ht="23.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="18" t="s">
         <v>371</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -9286,7 +9381,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>372</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -9297,7 +9392,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>373</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -9308,7 +9403,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>374</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -9319,7 +9414,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>375</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -9330,7 +9425,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="18" t="s">
         <v>376</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -9341,7 +9436,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="18" t="s">
         <v>377</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -9352,7 +9447,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="18" t="s">
         <v>378</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -9363,7 +9458,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="18" t="s">
         <v>379</v>
       </c>
       <c r="C18" s="3"/>
@@ -9372,8 +9467,8 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>419</v>
+      <c r="B19" s="18" t="s">
+        <v>418</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -9381,7 +9476,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="18" t="s">
         <v>380</v>
       </c>
       <c r="C20" s="3"/>
@@ -9390,7 +9485,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="18" t="s">
         <v>381</v>
       </c>
       <c r="C21" s="3"/>
@@ -9399,19 +9494,19 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="21" t="s">
         <v>382</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="20">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" ht="23.25">
       <c r="A24" s="3"/>
@@ -9419,11 +9514,11 @@
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="23.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="1:3" ht="23.25">
       <c r="A26" s="3">
@@ -9444,14 +9539,14 @@
         <v>395</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>407</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.25">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -9462,7 +9557,7 @@
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -9473,7 +9568,7 @@
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -9484,7 +9579,7 @@
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -9495,7 +9590,7 @@
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="18" t="s">
         <v>385</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -9506,7 +9601,7 @@
       <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="18" t="s">
         <v>386</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -9517,7 +9612,7 @@
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="18" t="s">
         <v>387</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -9528,7 +9623,7 @@
       <c r="A35" s="3">
         <v>10</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="18" t="s">
         <v>388</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -9539,7 +9634,7 @@
       <c r="A36" s="3">
         <v>11</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="18" t="s">
         <v>389</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -9550,7 +9645,7 @@
       <c r="A37" s="3">
         <v>12</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="18" t="s">
         <v>390</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -9561,7 +9656,7 @@
       <c r="A38" s="3">
         <v>13</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="18" t="s">
         <v>391</v>
       </c>
       <c r="C38" s="3"/>
@@ -9570,7 +9665,7 @@
       <c r="A39" s="3">
         <v>14</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="18" t="s">
         <v>392</v>
       </c>
       <c r="C39" s="3"/>
@@ -9579,7 +9674,7 @@
       <c r="A40" s="3">
         <v>15</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="18" t="s">
         <v>393</v>
       </c>
       <c r="C40" s="3"/>
@@ -9588,7 +9683,7 @@
       <c r="A41" s="3">
         <v>16</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="3"/>
@@ -9597,7 +9692,7 @@
       <c r="A42" s="3">
         <v>17</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="3"/>
@@ -9606,7 +9701,7 @@
       <c r="A43" s="3">
         <v>18</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="3"/>
@@ -9615,8 +9710,8 @@
       <c r="A44" s="3">
         <v>19</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>451</v>
+      <c r="B44" s="18" t="s">
+        <v>450</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -9624,7 +9719,7 @@
       <c r="A45" s="3">
         <v>20</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="3"/>
@@ -9633,7 +9728,7 @@
       <c r="A46" s="3">
         <v>21</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="3"/>
@@ -9644,11 +9739,11 @@
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="23.25">
-      <c r="A48" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="23.25">
       <c r="A49" s="3">
@@ -9658,7 +9753,7 @@
         <v>394</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="46.5">
@@ -9669,140 +9764,146 @@
         <v>395</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="23.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="46.5">
       <c r="A52" s="3">
         <v>4</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="23.25">
       <c r="A53" s="3">
         <v>5</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="46.5">
       <c r="A54" s="3">
         <v>6</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="23.25">
       <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="18" t="s">
         <v>385</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="46.5">
       <c r="A56" s="3">
         <v>8</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="18" t="s">
         <v>386</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="46.5">
       <c r="A57" s="3">
         <v>9</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="18" t="s">
         <v>387</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="46.5">
       <c r="A58" s="3">
         <v>10</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="18" t="s">
         <v>388</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="46.5">
       <c r="A59" s="3">
         <v>11</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="18" t="s">
         <v>389</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="23.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="46.5">
       <c r="A60" s="3">
         <v>12</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" ht="23.25">
+      <c r="C60" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="46.5">
       <c r="A61" s="3">
         <v>13</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" ht="23.25">
+      <c r="C61" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="46.5">
       <c r="A62" s="3">
         <v>14</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="23.25">
       <c r="A63" s="3">
         <v>15</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="18" t="s">
         <v>393</v>
       </c>
       <c r="C63" s="3"/>
@@ -9811,7 +9912,7 @@
       <c r="A64" s="3">
         <v>16</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="3"/>
@@ -9820,7 +9921,7 @@
       <c r="A65" s="3">
         <v>17</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="3"/>
@@ -9829,7 +9930,7 @@
       <c r="A66" s="3">
         <v>18</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="18" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="3"/>
@@ -9838,8 +9939,8 @@
       <c r="A67" s="3">
         <v>19</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>452</v>
+      <c r="B67" s="18" t="s">
+        <v>451</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -9847,7 +9948,7 @@
       <c r="A68" s="3">
         <v>20</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="3"/>
@@ -9856,7 +9957,7 @@
       <c r="A69" s="3">
         <v>21</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="3"/>
@@ -9865,7 +9966,7 @@
       <c r="A70" s="3">
         <v>22</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="18" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="3"/>
@@ -9885,11 +9986,11 @@
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="23.25">
-      <c r="A73" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" ht="46.5">
       <c r="A74" s="3">
@@ -9898,8 +9999,8 @@
       <c r="B74" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C74" s="34" t="s">
-        <v>432</v>
+      <c r="C74" s="22" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="46.5">
@@ -9909,8 +10010,8 @@
       <c r="B75" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C75" s="34" t="s">
-        <v>433</v>
+      <c r="C75" s="22" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="46.5">
@@ -9918,10 +10019,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>434</v>
+        <v>421</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="46.5">
@@ -9929,10 +10030,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>436</v>
+        <v>422</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="23.25">
@@ -9940,10 +10041,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>435</v>
+        <v>423</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="46.5">
@@ -9951,10 +10052,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>437</v>
+        <v>424</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="46.5">
@@ -9962,10 +10063,10 @@
         <v>7</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>438</v>
+        <v>425</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="46.5">
@@ -9973,10 +10074,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>439</v>
+        <v>426</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="23.25">
@@ -9984,7 +10085,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -9993,7 +10094,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -10002,7 +10103,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C84" s="3"/>
     </row>
@@ -10011,7 +10112,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -10021,11 +10122,11 @@
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" ht="23.25">
-      <c r="A87" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
     </row>
     <row r="88" spans="1:3" ht="46.5">
       <c r="A88" s="3">
@@ -10035,7 +10136,7 @@
         <v>394</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="46.5">
@@ -10046,7 +10147,7 @@
         <v>395</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="46.5">
@@ -10054,10 +10155,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="46.5">
@@ -10065,10 +10166,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="69.75">
@@ -10076,10 +10177,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="23.25">
@@ -10087,10 +10188,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="46.5">
@@ -10098,10 +10199,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="23.25">
@@ -10109,10 +10210,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="23.25">
@@ -10120,10 +10221,10 @@
         <v>9</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="46.5">
@@ -10131,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="23.25">
@@ -10151,7 +10252,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" s="3"/>
     </row>
@@ -10160,7 +10261,7 @@
         <v>13</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -10170,11 +10271,11 @@
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="23.25">
-      <c r="A102" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="24"/>
+      <c r="A102" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" ht="46.5">
       <c r="A103" s="3">
@@ -10184,7 +10285,7 @@
         <v>394</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="46.5">
@@ -10195,7 +10296,7 @@
         <v>395</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="23.25">
@@ -10203,10 +10304,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="23.25">
@@ -10214,10 +10315,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="23.25">
@@ -10225,10 +10326,10 @@
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="46.5">
@@ -10236,10 +10337,10 @@
         <v>6</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="23.25">
@@ -10247,10 +10348,10 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="23.25">
@@ -10258,7 +10359,7 @@
         <v>8</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C110" s="3"/>
     </row>
@@ -10267,7 +10368,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C111" s="3"/>
     </row>
@@ -10276,7 +10377,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C112" s="3"/>
     </row>
@@ -10430,5 +10531,6 @@
     <mergeCell ref="A48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>